--- a/orcamentosParaClientes/OrcamentoGerado_CDL de Joinville.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_CDL de Joinville.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD313B-D9EC-4E1E-9720-382AA98CE8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643A17B-6988-441D-8F91-32E66FB47273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{875F4D6C-AA06-4D16-B36B-28D15B5848D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B55B47-762D-4ADC-9AD8-1CEEEC4002CC}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Orçamento</t>
   </si>
@@ -69,7 +69,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pelo presente, apresentamos a proposta para Locação conforme descrição abaixo.</t>
+    <t>Pelo presente, apresentamos a proposta para Venda conforme descrição abaixo.</t>
   </si>
   <si>
     <t>Cenário: Centro</t>
@@ -129,7 +129,7 @@
     <t>SubTotal</t>
   </si>
   <si>
-    <t>Cenário: Leste</t>
+    <t>Cenário: Leste 2</t>
   </si>
   <si>
     <t>AR0212</t>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>7,55</t>
+  </si>
+  <si>
+    <t>Cenário: 90909</t>
   </si>
   <si>
     <t>Total</t>
@@ -678,8 +681,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132DB8C7-B7E7-497C-963D-6E28A793FF02}">
-  <dimension ref="A3:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E997584F-3CA9-47DD-ABDF-A296D7F2005D}">
+  <dimension ref="A3:H43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,7 +817,7 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12">
-        <v>125</v>
+        <v>180.41666666666666</v>
       </c>
       <c r="H16" s="12">
         <f>G16*F16</f>
@@ -841,11 +844,11 @@
         <v>5</v>
       </c>
       <c r="G17" s="12">
-        <v>1978.29</v>
+        <v>3269.2266666666665</v>
       </c>
       <c r="H17" s="12">
         <f>G17*F17</f>
-        <v>9891.4500000000007</v>
+        <v>16346.133333333331</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -854,7 +857,7 @@
       </c>
       <c r="H18" s="14">
         <f>SUM(H15:H17)</f>
-        <v>9891.4500000000007</v>
+        <v>16346.133333333331</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -920,11 +923,11 @@
         <v>33</v>
       </c>
       <c r="G22" s="12">
-        <v>125</v>
+        <v>180.41666666666666</v>
       </c>
       <c r="H22" s="12">
         <f>G22*F22</f>
-        <v>4125</v>
+        <v>5953.75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -933,7 +936,7 @@
       </c>
       <c r="H23" s="14">
         <f>SUM(H21:H22)</f>
-        <v>4125</v>
+        <v>5953.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,112 +944,165 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="14">
+        <f>SUM(H26:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="14">
-        <f>H23+H18</f>
-        <v>14016.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="H29" s="14">
+        <f>H27+H23+H18</f>
+        <v>22299.883333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18" t="s">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18" t="s">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
+  <mergeCells count="9">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E35CB-62C7-4F8C-9C28-4BEF81854574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600B1BD2-A68E-4CBE-94F0-A4331E471A2F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
